--- a/Time Tracking/Tracking Nick Miller.xlsx
+++ b/Time Tracking/Tracking Nick Miller.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nichj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EE906AA-0603-4018-8025-6192ECF98089}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68895A31-BD59-46D7-8B84-1C47FA5B2E4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{69ABCFF7-166F-491E-A750-93F1285A68D9}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -52,6 +53,9 @@
   </si>
   <si>
     <t>Nick Miller</t>
+  </si>
+  <si>
+    <t>Sprint Four</t>
   </si>
 </sst>
 </file>
@@ -113,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -124,22 +128,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -456,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF769FBB-6944-481D-925C-95A759414E8F}">
-  <dimension ref="B1:J32"/>
+  <dimension ref="B1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="126" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -471,25 +466,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="I1" s="8" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="8"/>
+      <c r="C3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
@@ -529,7 +524,7 @@
       <c r="E6" s="2">
         <v>43500</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>2</v>
       </c>
     </row>
@@ -543,7 +538,7 @@
       <c r="E7" s="2">
         <v>43506</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>3</v>
       </c>
     </row>
@@ -551,13 +546,13 @@
       <c r="B8" s="2">
         <v>43503</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="E8" s="2">
         <v>43507</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>2</v>
       </c>
     </row>
@@ -568,31 +563,31 @@
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="E13" s="7" t="s">
+      <c r="C13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
@@ -612,68 +607,68 @@
       <c r="B15" s="2">
         <v>43514</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="1">
         <v>1.5</v>
       </c>
       <c r="E15" s="2">
         <v>43514</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="1"/>
       <c r="E16" s="2">
         <v>43518</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="1"/>
       <c r="E17" s="2">
         <v>43520</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="1"/>
       <c r="E18" s="2">
         <v>43521</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
-      <c r="C19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="C19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="E22" s="7" t="s">
+      <c r="C22" s="5"/>
+      <c r="E22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
@@ -691,41 +686,41 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="1"/>
       <c r="E24" s="2">
         <v>43526</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="1"/>
       <c r="E25" s="2">
         <v>43527</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="1"/>
       <c r="E26" s="2">
         <v>43530</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="1"/>
       <c r="E27" s="2">
         <v>43531</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="1">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +728,7 @@
       <c r="E28" s="2">
         <v>43532</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="1">
         <v>0.5</v>
       </c>
     </row>
@@ -741,7 +736,7 @@
       <c r="E29" s="2">
         <v>43533</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="1">
         <v>1</v>
       </c>
     </row>
@@ -749,7 +744,7 @@
       <c r="E30" s="2">
         <v>43534</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="1">
         <v>1</v>
       </c>
     </row>
@@ -757,7 +752,7 @@
       <c r="E31" s="2">
         <v>43536</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="1">
         <v>1</v>
       </c>
     </row>
@@ -765,22 +760,124 @@
       <c r="E32" s="2">
         <v>43537</v>
       </c>
-      <c r="F32" s="6">
-        <v>1</v>
-      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="2"/>
+      <c r="C38" s="1"/>
+      <c r="E38" s="2">
+        <v>43556</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="2"/>
+      <c r="C39" s="1"/>
+      <c r="E39" s="2">
+        <v>43557</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="2"/>
+      <c r="C40" s="1"/>
+      <c r="E40" s="2">
+        <v>43560</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41" s="2"/>
+      <c r="C41" s="1"/>
+      <c r="E41" s="2">
+        <v>43561</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E42" s="2">
+        <v>43563</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E43" s="2">
+        <v>43564</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E44" s="2"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E45" s="2"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E46" s="2"/>
+      <c r="F46" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:F22"/>
+  <mergeCells count="13">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Time Tracking/Tracking Nick Miller.xlsx
+++ b/Time Tracking/Tracking Nick Miller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nichj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68895A31-BD59-46D7-8B84-1C47FA5B2E4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22985658-C540-4525-A3EA-48E750938175}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{69ABCFF7-166F-491E-A750-93F1285A68D9}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -56,6 +55,12 @@
   </si>
   <si>
     <t>Sprint Four</t>
+  </si>
+  <si>
+    <t>Sprint Five</t>
+  </si>
+  <si>
+    <t>Programming/Typing</t>
   </si>
 </sst>
 </file>
@@ -117,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -128,13 +133,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -451,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF769FBB-6944-481D-925C-95A759414E8F}">
-  <dimension ref="B1:J46"/>
+  <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="126" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="126" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,11 +474,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
@@ -573,11 +581,11 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
@@ -654,11 +662,11 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
@@ -765,11 +773,11 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
@@ -856,15 +864,107 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E45" s="2"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E46" s="2"/>
-      <c r="F46" s="1"/>
+      <c r="C45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="2">
+        <v>43568</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>43569</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="2"/>
+      <c r="C50" s="4"/>
+      <c r="E50" s="2">
+        <v>43571</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="2"/>
+      <c r="C51" s="4"/>
+      <c r="E51" s="2">
+        <v>43575</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="2"/>
+      <c r="C52" s="4"/>
+      <c r="E52" s="2">
+        <v>43576</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E53" s="2">
+        <v>43577</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E54" s="2">
+        <v>43578</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1.5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="I1:J1"/>
@@ -872,12 +972,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Time Tracking/Tracking Nick Miller.xlsx
+++ b/Time Tracking/Tracking Nick Miller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nichj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22985658-C540-4525-A3EA-48E750938175}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6177B0E8-4D38-4866-BB72-E1635F44119B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{69ABCFF7-166F-491E-A750-93F1285A68D9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Programming/Typing</t>
+  </si>
+  <si>
+    <t>Sprint Six</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -122,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -136,13 +142,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -459,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF769FBB-6944-481D-925C-95A759414E8F}">
-  <dimension ref="B1:J54"/>
+  <dimension ref="B1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="126" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47:F47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="126" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,25 +483,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="I1" s="6" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
@@ -581,21 +590,21 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="E13" s="5" t="s">
+      <c r="C13" s="7"/>
+      <c r="E13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
@@ -662,21 +671,21 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="E22" s="5" t="s">
+      <c r="C22" s="7"/>
+      <c r="E22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
@@ -773,21 +782,21 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="E36" s="5" t="s">
+      <c r="C36" s="7"/>
+      <c r="E36" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="6"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
@@ -864,21 +873,21 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="E47" s="5" t="s">
+      <c r="C47" s="7"/>
+      <c r="E47" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="6"/>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B48" s="3" t="s">
@@ -954,24 +963,102 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="E58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B60" s="2">
+        <v>43584</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2">
+        <v>43586</v>
+      </c>
+      <c r="F60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61" s="2">
+        <v>43587</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62" s="2"/>
+      <c r="C62" s="5"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63" s="2"/>
+      <c r="C63" s="5"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E64" s="2"/>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E65" s="2"/>
+      <c r="F65" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
